--- a/data/trans_orig/IP1009-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A1D42A-34A8-4944-A5E5-3577BBDFA43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F7546E-2122-4F21-A716-648F47C82604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FFBB3EAC-B8AA-4CD0-92AC-2B590312DE2E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E35D8DD-A8D8-49F8-9BE0-C5BEE84B7379}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,39 @@
     <t>0,98%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -139,39 +172,6 @@
     <t>1,02%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
@@ -223,6 +223,18 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>99,77%</t>
   </si>
   <si>
@@ -259,18 +271,6 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
     <t>99,57%</t>
   </si>
   <si>
@@ -328,6 +328,36 @@
     <t>0,55%</t>
   </si>
   <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>99,28%</t>
   </si>
   <si>
@@ -356,36 +386,6 @@
   </si>
   <si>
     <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
   </si>
   <si>
     <t>99,07%</t>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B125B382-C293-4D5C-9015-17036CDC58C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1676CF-D082-4689-8DEB-0D954CE5F4DB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1074,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>420</v>
+        <v>329</v>
       </c>
       <c r="D7" s="7">
-        <v>280105</v>
+        <v>217362</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1089,31 +1089,31 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I7" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>814</v>
+        <v>633</v>
       </c>
       <c r="N7" s="7">
-        <v>545708</v>
+        <v>422584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1125,19 +1125,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1393</v>
+        <v>679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1393</v>
+        <v>679</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1176,10 +1176,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1191,10 +1191,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1206,10 +1206,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1223,52 +1223,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="D10" s="7">
-        <v>217362</v>
+        <v>280105</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I10" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>633</v>
+        <v>814</v>
       </c>
       <c r="N10" s="7">
-        <v>422584</v>
+        <v>545708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1280,19 +1280,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>679</v>
+        <v>1393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>41</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>679</v>
+        <v>1393</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
@@ -1331,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1346,10 +1346,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1361,10 +1361,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1405,7 +1405,7 @@
         <v>679940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>47</v>
@@ -1456,7 +1456,7 @@
         <v>1081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -1547,7 +1547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62211C44-E164-408E-9953-CCE2FFD635F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACCB573-745C-41BD-BB58-08D42C619D72}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1820,49 +1820,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>269735</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>319</v>
+      </c>
+      <c r="I7" s="7">
+        <v>228178</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>651</v>
+      </c>
+      <c r="N7" s="7">
+        <v>468278</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>360</v>
-      </c>
-      <c r="I7" s="7">
-        <v>252899</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>757</v>
-      </c>
-      <c r="N7" s="7">
-        <v>522634</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,49 +1871,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1303</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1922</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1937,10 +1937,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1952,10 +1952,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1969,55 +1969,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="D10" s="7">
-        <v>240100</v>
+        <v>269735</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="I10" s="7">
-        <v>228178</v>
+        <v>252899</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>651</v>
+        <v>757</v>
       </c>
       <c r="N10" s="7">
-        <v>468278</v>
+        <v>522634</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,49 +2026,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1303</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1922</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,10 +2077,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2092,10 +2092,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2107,10 +2107,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A406B5EF-F799-4BD8-B6D0-160867FF8067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7662C46-5867-461F-9955-11298368BADF}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2420,7 +2420,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2432,7 +2432,7 @@
         <v>200813</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>90</v>
@@ -2474,7 +2474,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         <v>455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
@@ -2566,10 +2566,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>279590</v>
+        <v>249389</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>96</v>
@@ -2578,31 +2578,31 @@
         <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>358</v>
+      </c>
+      <c r="I7" s="7">
+        <v>233975</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="H7" s="7">
-        <v>374</v>
-      </c>
-      <c r="I7" s="7">
-        <v>266998</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="N7" s="7">
-        <v>546588</v>
+        <v>483364</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>100</v>
@@ -2617,43 +2617,43 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2039</v>
+        <v>663</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>772</v>
+        <v>1358</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2021</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2811</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>86</v>
@@ -2668,10 +2668,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2683,10 +2683,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2698,10 +2698,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2715,16 +2715,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D10" s="7">
-        <v>249389</v>
+        <v>279590</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>106</v>
@@ -2733,31 +2733,31 @@
         <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="I10" s="7">
-        <v>233975</v>
+        <v>266998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="N10" s="7">
-        <v>483364</v>
+        <v>546588</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>110</v>
@@ -2772,43 +2772,43 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>663</v>
+        <v>2039</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1358</v>
+        <v>772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2021</v>
+        <v>2811</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>86</v>
@@ -2823,10 +2823,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2838,10 +2838,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2853,10 +2853,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2897,7 +2897,7 @@
         <v>701786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>116</v>
@@ -2948,7 +2948,7 @@
         <v>2585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>94</v>

--- a/data/trans_orig/IP1009-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F7546E-2122-4F21-A716-648F47C82604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF000F4-366A-4B5B-9AE7-1D893EBF83F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E35D8DD-A8D8-49F8-9BE0-C5BEE84B7379}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBCC4504-33A3-40D6-8008-1F0B1538E290}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="148">
   <si>
     <t>Menores según si padecen transtornos intestinales crónicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,31 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,340 +100,388 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>99,25%</t>
   </si>
   <si>
     <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
   </si>
 </sst>
 </file>
@@ -420,7 +492,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -516,39 +588,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -600,7 +672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -711,13 +783,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -726,6 +791,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -790,19 +862,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1676CF-D082-4689-8DEB-0D954CE5F4DB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AF85E8-79FE-4A8B-9674-53143A40F7C4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -919,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>223161</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -934,34 +1026,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>318</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>209115</v>
+        <v>448</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>652</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>432276</v>
+        <v>448</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -970,10 +1062,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -985,34 +1077,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>1081</v>
+        <v>105723</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="N5" s="7">
-        <v>1081</v>
+        <v>227103</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1021,49 +1113,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1074,49 +1166,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>217362</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>634</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>304</v>
-      </c>
-      <c r="I7" s="7">
-        <v>205222</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>633</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>422584</v>
+        <v>634</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1125,49 +1217,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>382</v>
       </c>
       <c r="D8" s="7">
-        <v>679</v>
+        <v>253756</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>378</v>
+      </c>
+      <c r="I8" s="7">
+        <v>252571</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>760</v>
       </c>
       <c r="N8" s="7">
-        <v>679</v>
+        <v>506327</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1176,49 +1268,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1229,49 +1321,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>280105</v>
+        <v>679</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>265603</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
-        <v>814</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>545708</v>
+        <v>679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1280,49 +1372,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>1393</v>
+        <v>140836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>127548</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="N11" s="7">
-        <v>1393</v>
+        <v>268384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,102 +1423,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1083</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>720628</v>
+        <v>1393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>679940</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1393</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1400568</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,40 +1527,40 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>308</v>
       </c>
       <c r="D14" s="7">
-        <v>2072</v>
+        <v>204656</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="I14" s="7">
-        <v>1081</v>
+        <v>194097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="N14" s="7">
-        <v>3153</v>
+        <v>398753</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>55</v>
@@ -1477,7 +1569,7 @@
         <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,55 +1578,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2072</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1081</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3153</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1083</v>
+      </c>
+      <c r="D17" s="7">
+        <v>720628</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>679940</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2099</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1400568</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1547,8 +1800,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACCB573-745C-41BD-BB58-08D42C619D72}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2848D8-3DF0-4FEC-9AD0-180FBB08276F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1564,7 +1817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1665,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1677,13 +1930,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1692,22 +1945,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>462236</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,49 +1969,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,49 +2020,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,49 +2073,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>228178</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>468278</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,49 +2124,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>267101</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>234476</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>501576</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,49 +2175,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,49 +2228,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>397</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>269735</v>
+        <v>619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>360</v>
-      </c>
-      <c r="I10" s="7">
-        <v>252899</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>619</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>757</v>
-      </c>
-      <c r="N10" s="7">
-        <v>522634</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,49 +2279,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>619</v>
+        <v>157952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>1303</v>
+        <v>154834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>447</v>
+      </c>
+      <c r="N11" s="7">
+        <v>312786</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1922</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,102 +2330,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>747523</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1303</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I13" s="7">
-        <v>705625</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="L13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1303</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>2081</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1453148</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,49 +2434,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>619</v>
+        <v>177957</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>241</v>
+      </c>
+      <c r="I14" s="7">
+        <v>170034</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1303</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>503</v>
+      </c>
+      <c r="N14" s="7">
+        <v>347991</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1922</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,55 +2485,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>619</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1303</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1922</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1065</v>
+      </c>
+      <c r="D17" s="7">
+        <v>747523</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>705625</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2081</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1453148</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2293,8 +2707,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7662C46-5867-461F-9955-11298368BADF}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7123D715-33E1-4118-90C1-359A9B7EC0ED}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2310,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2411,49 +2825,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>200813</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>646</v>
-      </c>
-      <c r="N4" s="7">
-        <v>413976</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,49 +2876,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>455</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>398</v>
+      </c>
+      <c r="N5" s="7">
+        <v>255818</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>455</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,49 +2927,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,49 +2980,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>249389</v>
+        <v>663</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>233975</v>
+        <v>1813</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>720</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>483364</v>
+        <v>2476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,49 +3031,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>663</v>
+        <v>257398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>329</v>
       </c>
       <c r="I8" s="7">
-        <v>1358</v>
+        <v>208704</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>708</v>
       </c>
       <c r="N8" s="7">
-        <v>2021</v>
+        <v>466102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,49 +3082,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,49 +3135,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>279590</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>266998</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>752</v>
-      </c>
-      <c r="N10" s="7">
-        <v>546588</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,49 +3186,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>2039</v>
+        <v>188572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>772</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>535</v>
+      </c>
+      <c r="N11" s="7">
+        <v>377471</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2811</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,102 +3237,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1061</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>742142</v>
+        <v>2039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
-        <v>1057</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>701786</v>
+        <v>772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
-        <v>2118</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1443928</v>
+        <v>2811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,49 +3341,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>2702</v>
+        <v>172009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="I14" s="7">
-        <v>2585</v>
+        <v>172529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>477</v>
       </c>
       <c r="N14" s="7">
-        <v>5287</v>
+        <v>344537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,55 +3392,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2702</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2585</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5287</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="7">
+        <v>742142</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="I17" s="7">
+        <v>701786</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2118</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1443928</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1009-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF000F4-366A-4B5B-9AE7-1D893EBF83F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C830E0-BE6E-4473-BD4E-1157D32BCAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBCC4504-33A3-40D6-8008-1F0B1538E290}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E35C9296-58D2-454F-B364-E9950147E45B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="154">
   <si>
     <t>Menores según si padecen transtornos intestinales crónicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>97,62%</t>
+    <t>97,88%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,03%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -127,7 +127,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -142,7 +142,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,58%</t>
   </si>
   <si>
     <t>99,88%</t>
@@ -157,25 +157,25 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,58%</t>
+    <t>97,87%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>98,72%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -184,304 +184,322 @@
     <t>0,68%</t>
   </si>
   <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,92%</t>
+    <t>98,12%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
 </sst>
 </file>
@@ -893,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AF85E8-79FE-4A8B-9674-53143A40F7C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B864F5-240D-4271-B2F5-86BD2C740C03}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1658,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1667,10 +1685,10 @@
         <v>3153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>27</v>
@@ -1706,7 +1724,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1718,13 +1736,13 @@
         <v>1400568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2848D8-3DF0-4FEC-9AD0-180FBB08276F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CB9858-C392-448B-9FF7-2EDB483E34A6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,7 +2258,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2255,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2270,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,10 +2303,10 @@
         <v>157952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2303,7 +2321,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2318,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2395,7 +2413,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2404,13 +2422,13 @@
         <v>1303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2419,13 +2437,13 @@
         <v>1303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,7 +2461,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -2455,10 +2473,10 @@
         <v>170034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2470,10 +2488,10 @@
         <v>347991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2544,13 +2562,13 @@
         <v>619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2559,13 +2577,13 @@
         <v>1303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2574,13 +2592,13 @@
         <v>1922</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2613,10 @@
         <v>747523</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2707,7 +2725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7123D715-33E1-4118-90C1-359A9B7EC0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8027B229-A49F-46F0-B48F-23280D03940D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3004,10 +3022,10 @@
         <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3016,13 +3034,13 @@
         <v>2476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,10 +3055,10 @@
         <v>257398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3052,13 +3070,13 @@
         <v>208704</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M8" s="7">
         <v>708</v>
@@ -3067,13 +3085,13 @@
         <v>466102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3177,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3225,7 +3243,7 @@
         <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3296,13 +3314,13 @@
         <v>2039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3317,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3326,13 +3344,13 @@
         <v>2811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3365,13 @@
         <v>172009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>245</v>
@@ -3365,7 +3383,7 @@
         <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3377,13 +3395,13 @@
         <v>344537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3469,13 @@
         <v>2702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3466,13 +3484,13 @@
         <v>2585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3481,13 +3499,13 @@
         <v>5287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3520,13 @@
         <v>742142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7">
         <v>1057</v>
@@ -3517,13 +3535,13 @@
         <v>701786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>2118</v>
@@ -3532,13 +3550,13 @@
         <v>1443928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1009-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C830E0-BE6E-4473-BD4E-1157D32BCAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3D91F4F-90C2-40E2-AB52-9FC90C016AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E35C9296-58D2-454F-B364-E9950147E45B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7CF61B8C-BE7C-4963-AAB1-35954B03F76F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="160">
   <si>
     <t>Menores según si padecen transtornos intestinales crónicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,30 +73,36 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,35%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,94%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -106,328 +112,349 @@
     <t>100%</t>
   </si>
   <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,06%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>1,85%</t>
   </si>
   <si>
     <t>1,17%</t>
@@ -436,10 +463,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -448,58 +472,52 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,88%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>96,52%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,12%</t>
+    <t>98,1%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
+    <t>0,11%</t>
+  </si>
+  <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
 </sst>
 </file>
@@ -911,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B864F5-240D-4271-B2F5-86BD2C740C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A622B1FC-3636-40B8-ACA9-4502247FDB21}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1029,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1044,16 +1062,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1068,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1080,10 +1098,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>105723</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1095,19 +1113,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>105723</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>343</v>
@@ -1122,7 +1140,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1131,34 +1149,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>344</v>
@@ -1167,13 +1185,13 @@
         <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,31 +1202,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>29</v>
@@ -1223,7 +1241,7 @@
         <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>31</v>
@@ -1235,34 +1253,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D8" s="7">
-        <v>253756</v>
+        <v>252571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I8" s="7">
-        <v>252571</v>
+        <v>253756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>760</v>
@@ -1277,7 +1295,7 @@
         <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,34 +1304,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>761</v>
@@ -1322,13 +1340,13 @@
         <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,28 +1357,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>679</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -1375,10 +1393,10 @@
         <v>679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>41</v>
@@ -1390,28 +1408,28 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
         <v>211</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>140836</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127548</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>44</v>
@@ -1426,13 +1444,13 @@
         <v>268384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,34 +1459,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>403</v>
@@ -1477,13 +1495,13 @@
         <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,28 +1512,28 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1393</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
@@ -1533,7 +1551,7 @@
         <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>51</v>
@@ -1545,28 +1563,28 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>286</v>
+      </c>
+      <c r="D14" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
         <v>308</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>204656</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>286</v>
-      </c>
-      <c r="I14" s="7">
-        <v>194097</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>54</v>
@@ -1587,7 +1605,7 @@
         <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,34 +1614,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -1632,13 +1650,13 @@
         <v>400146</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,31 +1667,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2072</v>
+        <v>1081</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2072</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1081</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>61</v>
@@ -1688,10 +1706,10 @@
         <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,34 +1718,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7">
+        <v>679940</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7">
         <v>1083</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>720628</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679940</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>2099</v>
@@ -1736,13 +1754,13 @@
         <v>1400568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,34 +1769,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>2104</v>
@@ -1787,18 +1805,18 @@
         <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CB9858-C392-448B-9FF7-2EDB483E34A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0A72FD-95E6-46BC-8B2D-BA9B36ECF710}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1835,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1942,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1957,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1972,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,34 +2005,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>218</v>
+      </c>
+      <c r="D5" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>205</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>144513</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>218</v>
-      </c>
-      <c r="I5" s="7">
-        <v>146281</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>423</v>
@@ -2023,13 +2041,13 @@
         <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,34 +2056,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>423</v>
@@ -2074,13 +2092,13 @@
         <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2112,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2127,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,34 +2160,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>337</v>
+      </c>
+      <c r="D8" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
         <v>371</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>267101</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7">
-        <v>337</v>
-      </c>
-      <c r="I8" s="7">
-        <v>234476</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>708</v>
@@ -2178,13 +2196,13 @@
         <v>501576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,34 +2211,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>708</v>
@@ -2229,13 +2247,13 @@
         <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,34 +2264,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>619</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2285,10 +2303,10 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,31 +2315,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>220</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
         <v>227</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>157952</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>220</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154834</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2336,10 +2354,10 @@
         <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,34 +2366,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>448</v>
@@ -2384,13 +2402,13 @@
         <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,34 +2419,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2437,13 +2455,13 @@
         <v>1303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,34 +2470,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>177957</v>
+        <v>170034</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="I14" s="7">
-        <v>170034</v>
+        <v>177957</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>503</v>
@@ -2488,13 +2506,13 @@
         <v>347991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,34 +2521,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>505</v>
@@ -2539,13 +2557,13 @@
         <v>349294</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,34 +2574,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1303</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>619</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1303</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2592,13 +2610,13 @@
         <v>1922</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,34 +2625,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7">
+        <v>705625</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7">
         <v>1065</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>747523</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705625</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
         <v>2081</v>
@@ -2643,13 +2661,13 @@
         <v>1453148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,34 +2676,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>2084</v>
@@ -2694,18 +2712,18 @@
         <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2725,7 +2743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8027B229-A49F-46F0-B48F-23280D03940D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4D46EE-903A-4DB1-BD82-38167DD6BD0D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2742,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2849,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2864,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2879,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,34 +2912,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>398</v>
@@ -2930,13 +2948,13 @@
         <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,34 +2963,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>398</v>
@@ -2981,13 +2999,13 @@
         <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,34 +3016,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1813</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>663</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1813</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3034,13 +3052,13 @@
         <v>2476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,34 +3067,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>329</v>
+      </c>
+      <c r="D8" s="7">
+        <v>208704</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="7">
         <v>379</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>257398</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>329</v>
-      </c>
-      <c r="I8" s="7">
-        <v>208704</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>708</v>
@@ -3085,13 +3103,13 @@
         <v>466102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,34 +3118,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>712</v>
@@ -3136,13 +3154,13 @@
         <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3174,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3189,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,34 +3222,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
         <v>263</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>188572</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>535</v>
@@ -3240,13 +3258,13 @@
         <v>377471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,34 +3273,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>535</v>
@@ -3291,13 +3309,13 @@
         <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,34 +3326,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>772</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2039</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>772</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3344,13 +3362,13 @@
         <v>2811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,34 +3377,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>245</v>
+      </c>
+      <c r="D14" s="7">
+        <v>172529</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>232</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>172009</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="7">
-        <v>245</v>
-      </c>
-      <c r="I14" s="7">
-        <v>172529</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>477</v>
@@ -3395,13 +3413,13 @@
         <v>344537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,34 +3428,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>481</v>
@@ -3446,13 +3464,13 @@
         <v>347348</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,31 +3484,31 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2702</v>
+        <v>2585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2585</v>
+        <v>2702</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3499,13 +3517,13 @@
         <v>5287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,34 +3532,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="D17" s="7">
+        <v>701786</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="7">
         <v>1061</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>742142</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I17" s="7">
-        <v>701786</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>2118</v>
@@ -3550,13 +3568,13 @@
         <v>1443928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,34 +3583,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>2126</v>
@@ -3601,18 +3619,18 @@
         <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
